--- a/recursos/Qualtrics/Updated_Qualtrics_Seguimiento_Tutores_3.xlsx
+++ b/recursos/Qualtrics/Updated_Qualtrics_Seguimiento_Tutores_3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USUARIO\Downloads\qualtrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56265B59-39FA-4D28-86ED-41C1015E4CD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3957FAA-8FC0-482C-B730-388979514F25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20385" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="86">
   <si>
     <t>Fecha de inicio</t>
   </si>
@@ -268,16 +268,19 @@
     <t>Gracias</t>
   </si>
   <si>
-    <t>Prueba1@pruebmail.com</t>
-  </si>
-  <si>
-    <t>Prueba2@pruebmail.com</t>
-  </si>
-  <si>
     <t>Prueba3@pruebmail.com</t>
   </si>
   <si>
-    <t>Prueba4@pruebmail.com</t>
+    <t>quintana.nicolas@javeriana.edi.co</t>
+  </si>
+  <si>
+    <t>jecheverry@javeriana.edu.co</t>
+  </si>
+  <si>
+    <t>valentina.lopez@javeriana.edu.co</t>
+  </si>
+  <si>
+    <t>mateo.fernandez@.hotmail.com</t>
   </si>
 </sst>
 </file>
@@ -659,7 +662,7 @@
   <dimension ref="A1:AQ6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="N21" sqref="N21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -830,7 +833,7 @@
         <v>66</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W2">
         <v>4</v>
@@ -889,7 +892,7 @@
         <v>67</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="W3">
         <v>22222</v>
@@ -948,7 +951,7 @@
         <v>68</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="W4">
         <v>333333</v>
@@ -1032,7 +1035,63 @@
       </c>
     </row>
     <row r="6" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="L6" s="2"/>
+      <c r="A6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E6">
+        <v>92</v>
+      </c>
+      <c r="F6">
+        <v>698</v>
+      </c>
+      <c r="G6" t="s">
+        <v>56</v>
+      </c>
+      <c r="H6" t="s">
+        <v>57</v>
+      </c>
+      <c r="I6" t="s">
+        <v>61</v>
+      </c>
+      <c r="J6" t="s">
+        <v>65</v>
+      </c>
+      <c r="K6" t="s">
+        <v>69</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="W6">
+        <v>4444</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>74</v>
+      </c>
+      <c r="AM6" t="s">
+        <v>77</v>
+      </c>
+      <c r="AN6" t="s">
+        <v>78</v>
+      </c>
+      <c r="AP6">
+        <v>5</v>
+      </c>
+      <c r="AQ6" t="s">
+        <v>80</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1040,6 +1099,7 @@
     <hyperlink ref="L4" r:id="rId2" xr:uid="{73E47BA1-A10E-4F48-B7C7-90CDDC546FA3}"/>
     <hyperlink ref="L5" r:id="rId3" xr:uid="{796AD476-DE5C-47CF-ADB4-636DFBCC2907}"/>
     <hyperlink ref="L2" r:id="rId4" xr:uid="{80341F2B-66FE-48F5-BDFF-9C9188943D00}"/>
+    <hyperlink ref="L6" r:id="rId5" xr:uid="{4D21084E-FC54-403C-885C-A8F305AB08FA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
